--- a/Meetup/GroupList.xlsx
+++ b/Meetup/GroupList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHubDesktop\blogshare\Meetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA38E0-6047-4E30-B866-B1BD782CFDDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC03486-2E02-4EF2-824F-95C6A4C1EBC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21768" yWindow="1992" windowWidth="20736" windowHeight="11844" xr2:uid="{FBD5F52B-69BB-4E01-BE1D-288DCE8BDE26}"/>
+    <workbookView xWindow="-26496" yWindow="1320" windowWidth="20760" windowHeight="11844" xr2:uid="{FBD5F52B-69BB-4E01-BE1D-288DCE8BDE26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,69 +34,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>FeedURL</t>
   </si>
   <si>
-    <t>https://www.meetup.com/DFW-Power-BI-User-Group</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/Portland-Power-BI-User-Group</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/powerbi-mn</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/Nashville-Modern-Excel-User-Group</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/Atlanta-Microsoft-Business-Intelligence-Users</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/orlando-power-bi-user-group</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/Austin-Power-BI-User-Group</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/Hartford-Power-BI-User-Group</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/PUGMontreal</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/MileHiPowerBI</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/Power-BI-Community-Times</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/Greater-Houston-Power-BI-Users-Group</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/PowerBI-Turkiye</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/New-Stars-Of-Data</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/powerbiusergroup</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/Power-BI-Café</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/Boston_BI</t>
-  </si>
-  <si>
-    <t>https://www.meetup.com/IowaPowerBI</t>
-  </si>
-  <si>
     <t>Private issue</t>
   </si>
   <si>
     <t>Errors</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>DFW Power BI User Group</t>
+  </si>
+  <si>
+    <t>Portland Power BI User Group</t>
+  </si>
+  <si>
+    <t>Atlanta Microsoft Business Intelligence Users</t>
+  </si>
+  <si>
+    <t>IowaPowerBI</t>
+  </si>
+  <si>
+    <t>Austin Power BI User Group</t>
+  </si>
+  <si>
+    <t>PUGMontreal</t>
+  </si>
+  <si>
+    <t>MileHiPowerBI</t>
+  </si>
+  <si>
+    <t>Power BI Community Times</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Power BI | Data Analytics Meetup</t>
+  </si>
+  <si>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Nashville Modern Excel &amp; Power BI User Group</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Des Moines Power BI User Group</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Orlando Power BI User Group</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Montral Modern Excel and Power BI</t>
+  </si>
+  <si>
+    <t>Montreal</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>Mile Hi Power BI User Group</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Greater Houston Power BI User group</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Power BI Turkiye</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Boston Business Intelligence</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>New Stars of Data</t>
+  </si>
+  <si>
+    <t>Nurnberg</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>DFW-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Portland-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>powerbi-mn</t>
+  </si>
+  <si>
+    <t>Nashville-Modern-Excel-User-Group</t>
+  </si>
+  <si>
+    <t>Atlanta-Microsoft-Business-Intelligence-Users</t>
+  </si>
+  <si>
+    <t>orlando-power-bi-user-group</t>
+  </si>
+  <si>
+    <t>Austin-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Power-BI-Community-Times</t>
+  </si>
+  <si>
+    <t>Greater-Houston-Power-BI-Users-Group</t>
+  </si>
+  <si>
+    <t>PowerBI-Turkiye</t>
+  </si>
+  <si>
+    <t>Boston_BI</t>
+  </si>
+  <si>
+    <t>New-Stars-Of-Data</t>
+  </si>
+  <si>
+    <t>powerbiusergroup</t>
+  </si>
+  <si>
+    <t>Power-BI-Café</t>
+  </si>
+  <si>
+    <t>Hartford-Power-BI-User-Group</t>
   </si>
 </sst>
 </file>
@@ -118,12 +268,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,18 +291,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,139 +612,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A01CF63-2C8A-4AFC-86FF-A4F7E98922B3}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4EC51F42-FFEB-4705-A6E4-97AB4299607E}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{1046F404-6966-4450-AAC6-F5A68DB81E25}"/>
-    <hyperlink ref="A13" r:id="rId3" xr:uid="{67E832C8-92AF-405A-838C-E409B9DFC8E5}"/>
-    <hyperlink ref="A14" r:id="rId4" xr:uid="{E47E1780-B5A5-4AD5-9E4F-A843ADE485CE}"/>
-    <hyperlink ref="A15" r:id="rId5" xr:uid="{7B847705-9F4E-4F1E-841A-BB9D32F4C26A}"/>
-    <hyperlink ref="A16" r:id="rId6" xr:uid="{43C10EAE-BF0F-4E0C-8493-3591275C1A09}"/>
-    <hyperlink ref="A17" r:id="rId7" xr:uid="{24A5B414-C533-4496-8C2A-2AC19AA9C595}"/>
-    <hyperlink ref="A18" r:id="rId8" xr:uid="{446DE33F-15DA-4F3E-A557-5FC5DECB007A}"/>
-    <hyperlink ref="A19" r:id="rId9" xr:uid="{1BA646C4-D6F8-4C4B-BFA6-8DF71E4F42F6}"/>
-    <hyperlink ref="A20" r:id="rId10" xr:uid="{4219E2C4-1854-42C9-9D49-2D0E4C02447A}"/>
-    <hyperlink ref="A7" r:id="rId11" xr:uid="{97940DDF-A8BE-4C61-85F4-AAD0212C3AFC}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.meetup.com/DFW-Power-BI-User-Group" xr:uid="{4EC51F42-FFEB-4705-A6E4-97AB4299607E}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.meetup.com/Portland-Power-BI-User-Group" xr:uid="{1046F404-6966-4450-AAC6-F5A68DB81E25}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.meetup.com/Power-BI-Community-Times" xr:uid="{67E832C8-92AF-405A-838C-E409B9DFC8E5}"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://www.meetup.com/Greater-Houston-Power-BI-Users-Group" xr:uid="{E47E1780-B5A5-4AD5-9E4F-A843ADE485CE}"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://www.meetup.com/PowerBI-Turkiye" xr:uid="{7B847705-9F4E-4F1E-841A-BB9D32F4C26A}"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://www.meetup.com/Austin-Power-BI-User-Group" xr:uid="{43C10EAE-BF0F-4E0C-8493-3591275C1A09}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://www.meetup.com/New-Stars-Of-Data" xr:uid="{24A5B414-C533-4496-8C2A-2AC19AA9C595}"/>
+    <hyperlink ref="A19" r:id="rId8" display="https://www.meetup.com/powerbiusergroup" xr:uid="{446DE33F-15DA-4F3E-A557-5FC5DECB007A}"/>
+    <hyperlink ref="A20" r:id="rId9" display="https://www.meetup.com/Power-BI-Café" xr:uid="{1BA646C4-D6F8-4C4B-BFA6-8DF71E4F42F6}"/>
+    <hyperlink ref="A16" r:id="rId10" display="https://www.meetup.com/Boston_BI" xr:uid="{4219E2C4-1854-42C9-9D49-2D0E4C02447A}"/>
+    <hyperlink ref="A7" r:id="rId11" display="https://www.meetup.com/IowaPowerBI" xr:uid="{97940DDF-A8BE-4C61-85F4-AAD0212C3AFC}"/>
+    <hyperlink ref="A11" r:id="rId12" display="https://www.meetup.com/MileHiPowerBI" xr:uid="{02DADBF5-1E3F-4BCC-A5B6-009CD554F699}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meetup/GroupList.xlsx
+++ b/Meetup/GroupList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHubDesktop\blogshare\Meetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC03486-2E02-4EF2-824F-95C6A4C1EBC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385FE2A1-0307-4C67-B634-39AF1F28FD24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26496" yWindow="1320" windowWidth="20760" windowHeight="11844" xr2:uid="{FBD5F52B-69BB-4E01-BE1D-288DCE8BDE26}"/>
+    <workbookView xWindow="-23652" yWindow="2400" windowWidth="20760" windowHeight="11832" xr2:uid="{FBD5F52B-69BB-4E01-BE1D-288DCE8BDE26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>FeedURL</t>
   </si>
@@ -612,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A01CF63-2C8A-4AFC-86FF-A4F7E98922B3}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,7 @@
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -665,7 +665,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -685,7 +685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -705,7 +705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -725,7 +725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -744,8 +744,11 @@
       <c r="F6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -765,7 +768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -785,7 +788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -805,7 +808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -825,7 +828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -845,7 +848,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -865,7 +868,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -885,7 +888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -902,18 +905,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -922,46 +925,34 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
         <v>2</v>
@@ -969,17 +960,9 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -990,13 +973,12 @@
     <hyperlink ref="A12" r:id="rId3" display="https://www.meetup.com/Power-BI-Community-Times" xr:uid="{67E832C8-92AF-405A-838C-E409B9DFC8E5}"/>
     <hyperlink ref="A13" r:id="rId4" display="https://www.meetup.com/Greater-Houston-Power-BI-Users-Group" xr:uid="{E47E1780-B5A5-4AD5-9E4F-A843ADE485CE}"/>
     <hyperlink ref="A14" r:id="rId5" display="https://www.meetup.com/PowerBI-Turkiye" xr:uid="{7B847705-9F4E-4F1E-841A-BB9D32F4C26A}"/>
-    <hyperlink ref="A15" r:id="rId6" display="https://www.meetup.com/Austin-Power-BI-User-Group" xr:uid="{43C10EAE-BF0F-4E0C-8493-3591275C1A09}"/>
-    <hyperlink ref="A17" r:id="rId7" display="https://www.meetup.com/New-Stars-Of-Data" xr:uid="{24A5B414-C533-4496-8C2A-2AC19AA9C595}"/>
-    <hyperlink ref="A19" r:id="rId8" display="https://www.meetup.com/powerbiusergroup" xr:uid="{446DE33F-15DA-4F3E-A557-5FC5DECB007A}"/>
-    <hyperlink ref="A20" r:id="rId9" display="https://www.meetup.com/Power-BI-Café" xr:uid="{1BA646C4-D6F8-4C4B-BFA6-8DF71E4F42F6}"/>
-    <hyperlink ref="A16" r:id="rId10" display="https://www.meetup.com/Boston_BI" xr:uid="{4219E2C4-1854-42C9-9D49-2D0E4C02447A}"/>
-    <hyperlink ref="A7" r:id="rId11" display="https://www.meetup.com/IowaPowerBI" xr:uid="{97940DDF-A8BE-4C61-85F4-AAD0212C3AFC}"/>
-    <hyperlink ref="A11" r:id="rId12" display="https://www.meetup.com/MileHiPowerBI" xr:uid="{02DADBF5-1E3F-4BCC-A5B6-009CD554F699}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://www.meetup.com/New-Stars-Of-Data" xr:uid="{24A5B414-C533-4496-8C2A-2AC19AA9C595}"/>
+    <hyperlink ref="A18" r:id="rId7" display="https://www.meetup.com/powerbiusergroup" xr:uid="{446DE33F-15DA-4F3E-A557-5FC5DECB007A}"/>
+    <hyperlink ref="A19" r:id="rId8" display="https://www.meetup.com/Power-BI-Café" xr:uid="{1BA646C4-D6F8-4C4B-BFA6-8DF71E4F42F6}"/>
+    <hyperlink ref="A15" r:id="rId9" display="https://www.meetup.com/Boston_BI" xr:uid="{4219E2C4-1854-42C9-9D49-2D0E4C02447A}"/>
+    <hyperlink ref="A7" r:id="rId10" display="https://www.meetup.com/IowaPowerBI" xr:uid="{97940DDF-A8BE-4C61-85F4-AAD0212C3AFC}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://www.meetup.com/MileHiPowerBI" xr:uid="{02DADBF5-1E3F-4BCC-A5B6-009CD554F699}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meetup/GroupList.xlsx
+++ b/Meetup/GroupList.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_GitHubDesktop\blogshare\Meetup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385FE2A1-0307-4C67-B634-39AF1F28FD24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C516AAB-BA60-4089-AA2F-5434A3A4CF91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23652" yWindow="2400" windowWidth="20760" windowHeight="11832" xr2:uid="{FBD5F52B-69BB-4E01-BE1D-288DCE8BDE26}"/>
+    <workbookView xWindow="-27684" yWindow="972" windowWidth="20748" windowHeight="11796" activeTab="1" xr2:uid="{FBD5F52B-69BB-4E01-BE1D-288DCE8BDE26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TinyURL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="435">
   <si>
     <t>FeedURL</t>
   </si>
@@ -42,9 +43,6 @@
     <t>Private issue</t>
   </si>
   <si>
-    <t>Errors</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -153,9 +151,6 @@
     <t>QC</t>
   </si>
   <si>
-    <t>CAN</t>
-  </si>
-  <si>
     <t>Mile Hi Power BI User Group</t>
   </si>
   <si>
@@ -247,13 +242,1111 @@
   </si>
   <si>
     <t>Hartford-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>San Antonio Power BI User Group</t>
+  </si>
+  <si>
+    <t>San Antonios</t>
+  </si>
+  <si>
+    <t>Power BI Café Miami</t>
+  </si>
+  <si>
+    <t>Loaded</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Omaha-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Omaha Power BI User Group</t>
+  </si>
+  <si>
+    <t>Omaha</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Microsoft-BI-Power-BI-User-Group-Finland</t>
+  </si>
+  <si>
+    <t>Microsoft BI Power BI User Group Finland</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Swedish-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Swedish Power BI User Group</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>RVAPowerBIUG</t>
+  </si>
+  <si>
+    <t>Richmond Power BI User Group</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Power BI User Group Luxembourg</t>
+  </si>
+  <si>
+    <t>meetup-group-JYJMAmOC</t>
+  </si>
+  <si>
+    <t>Lexembourg</t>
+  </si>
+  <si>
+    <t>Power-BI-Argentina</t>
+  </si>
+  <si>
+    <t>Power BI Argentina User Group</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Koln-Business-Intelligence-Meetup</t>
+  </si>
+  <si>
+    <t>Power BI User Group Cologne</t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>microsoft-power-bi-uk</t>
+  </si>
+  <si>
+    <t>Microsoft Power BI UK</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>power-bi-user-group-italy</t>
+  </si>
+  <si>
+    <t>Milano</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Power BI user group Italy</t>
+  </si>
+  <si>
+    <t>PowerPlatformChile</t>
+  </si>
+  <si>
+    <t>Power Platform Chile</t>
+  </si>
+  <si>
+    <t>Santiagp</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>North-East-Power-BI-Meetup</t>
+  </si>
+  <si>
+    <t>Power BI North East</t>
+  </si>
+  <si>
+    <t>Newcastle Upon Tyne</t>
+  </si>
+  <si>
+    <t>PUGSpain</t>
+  </si>
+  <si>
+    <t>Power BI Spain User Group</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>PowerPlatform-Paraguay</t>
+  </si>
+  <si>
+    <t>Power Platform Paraguay</t>
+  </si>
+  <si>
+    <t>Asuncion</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Indianapolis-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Indianapolis Power BI User Group</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Power-BI-Data-Scientist-Artificial-Intelligence-Solutions</t>
+  </si>
+  <si>
+    <t>Power BI Data Scientist Artificial Intelligence Solutions</t>
+  </si>
+  <si>
+    <t>Power-BI-User-Group-Wellington-NZ</t>
+  </si>
+  <si>
+    <t>Power BI User Group Wellington NZ</t>
+  </si>
+  <si>
+    <t>Wellington</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Bellingham-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Bellingham Power BI User Group</t>
+  </si>
+  <si>
+    <t>Bellingham</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>New-Zealand-Business-Intelligence-User-Group</t>
+  </si>
+  <si>
+    <t>New Zealand Business Intelligence User Group</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>The-Power-BI-Apprentice</t>
+  </si>
+  <si>
+    <t>The Power BI Apprentice</t>
+  </si>
+  <si>
+    <t>Madison-Power-BI</t>
+  </si>
+  <si>
+    <t>Madison Power BI User Group</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Club-Power-BI</t>
+  </si>
+  <si>
+    <t>Club Power BI</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Power-BI-Melbourne</t>
+  </si>
+  <si>
+    <t>Power BI Melbourne</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Birmingham-Modern-Excel-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Birmingham Modern Excel &amp; Power BI User Group</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Pittsburgh-Power-BI-Meetup</t>
+  </si>
+  <si>
+    <t>Pittsburgh Power BI Meetup</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>PBILEEDS</t>
+  </si>
+  <si>
+    <t>Leeds Power BI User Group</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Tampa-Bay-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Tampa Bay Power BI User Group</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>PBIMCR</t>
+  </si>
+  <si>
+    <t>Manchester Power BI User Group</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Berlin-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Berlin Power BI User Group</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>RDUPUG</t>
+  </si>
+  <si>
+    <t>Raleigh / Durham Power BI User Group</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>PBIUGSTU</t>
+  </si>
+  <si>
+    <t>Power BI User Group Stuttgart</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>London-PUG</t>
+  </si>
+  <si>
+    <t>London Power BI User Group</t>
+  </si>
+  <si>
+    <t>slpowerbi</t>
+  </si>
+  <si>
+    <t>Sri Lankan Power BI Community</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>San-Jose-Business-Intelligence-Meetup</t>
+  </si>
+  <si>
+    <t>Bay Area Business Analytics / Power BI users group</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Power-BI-Metrics-Meetup</t>
+  </si>
+  <si>
+    <t>Power BI Metrics Meetup</t>
+  </si>
+  <si>
+    <t>7008169b-6cb9-4ad3-8211-28cf1ca0fb15</t>
+  </si>
+  <si>
+    <t>Power BI Users Meetup</t>
+  </si>
+  <si>
+    <t>Makati</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Chester-County-Modern-Excel-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Chester County Modern Excel Power BI User Group</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Newcastle-PUG</t>
+  </si>
+  <si>
+    <t>Newcastle Power BI User Group</t>
+  </si>
+  <si>
+    <t>Enterprise-Power-BI</t>
+  </si>
+  <si>
+    <t>Enterprise Power BI</t>
+  </si>
+  <si>
+    <t>power-bi-ciudad-de-mexico</t>
+  </si>
+  <si>
+    <t>Power BI Ciudad de Mexico</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>power-bi-buenos-aires</t>
+  </si>
+  <si>
+    <t>Power BI Buenos Aires</t>
+  </si>
+  <si>
+    <t>Ottawa-Power-BI-users</t>
+  </si>
+  <si>
+    <t>Ottawa Power BI users</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>SeattlePowerBIUserGroup</t>
+  </si>
+  <si>
+    <t>Seattle Power BI User Group</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Victoria-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Victoria Power BI User Group</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Power-BI-Portugal</t>
+  </si>
+  <si>
+    <t>Power BI Portugal</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Riga-Power-BI-Meetup</t>
+  </si>
+  <si>
+    <t>Riga Power BI Meetup</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Power-BI-DC</t>
+  </si>
+  <si>
+    <t>Power BI DC</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>NY-NJ-Power-BI-Meetup</t>
+  </si>
+  <si>
+    <t>NY/NJ Power BI Meetup</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Power-BI-User-Group-Wallonie</t>
+  </si>
+  <si>
+    <t>Power BI User Group Wallonie</t>
+  </si>
+  <si>
+    <t>Liege</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>romaniapug</t>
+  </si>
+  <si>
+    <t>Romania Power BI &amp; Modern Excel User Group</t>
+  </si>
+  <si>
+    <t>Timisoara</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Vancouver-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Vancouver Power BI User Group</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t>Belgium-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Belgium Power BI User Group</t>
+  </si>
+  <si>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Power-BI-User-Group-Switzerland</t>
+  </si>
+  <si>
+    <t>Power BI User Group Switzerland</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>microsoftpowerbi</t>
+  </si>
+  <si>
+    <t>Rio de Janerio</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Peru-BI-Analytics-Group</t>
+  </si>
+  <si>
+    <t>Peru BI Analytics Group</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Power-BI-Panama-User-Group</t>
+  </si>
+  <si>
+    <t>Power BI Panama User Group</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>South-Florida-Power-BI</t>
+  </si>
+  <si>
+    <t>South Florida Power BI</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale</t>
+  </si>
+  <si>
+    <t>spain-power-bi</t>
+  </si>
+  <si>
+    <t>Spain Power BI</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Kharkiv-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Kharkiv Power BI User Group</t>
+  </si>
+  <si>
+    <t>Kharkiv</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Adelaide-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Adelaide Power BI User Group</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>power_platform_portugal</t>
+  </si>
+  <si>
+    <t>Power Platform Portugal</t>
+  </si>
+  <si>
+    <t>mostly-power-bi</t>
+  </si>
+  <si>
+    <t>Mostly Power BI</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>Hungray</t>
+  </si>
+  <si>
+    <t>power-platform-canarias</t>
+  </si>
+  <si>
+    <t>Power Platform Canarias</t>
+  </si>
+  <si>
+    <t>Santa Cruz de Tenerife</t>
+  </si>
+  <si>
+    <t>powerbirecifepe</t>
+  </si>
+  <si>
+    <t>Power BI Recife</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>Nigeria-Excel-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Nigeria Excel Power BI User Group</t>
+  </si>
+  <si>
+    <t>Lagos</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Outaouais-Power-BI-users</t>
+  </si>
+  <si>
+    <t>Outaouais Power BI users</t>
+  </si>
+  <si>
+    <t>Cantley</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Power-BI-Maringa</t>
+  </si>
+  <si>
+    <t>Power BI Maringa</t>
+  </si>
+  <si>
+    <t>Maringa</t>
+  </si>
+  <si>
+    <t>Power-BI-Chile</t>
+  </si>
+  <si>
+    <t>Power BI Chile</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>LASU-Microsoft-Azure-Power-Platform-Meetup-Group</t>
+  </si>
+  <si>
+    <t>Microsoft Azure Power Platform Meetup Group</t>
+  </si>
+  <si>
+    <t>Singapore-Power-BI-and-Modern-Excel-Meetup</t>
+  </si>
+  <si>
+    <t>Singapore Power BI and Modern Excel-Meetup</t>
+  </si>
+  <si>
+    <t>Power-BI-Barcelona</t>
+  </si>
+  <si>
+    <t>Power BI Barcelona</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>power-bi-for-accountants-beginners</t>
+  </si>
+  <si>
+    <t>Power BI for accountants beginners</t>
+  </si>
+  <si>
+    <t>Hounslow</t>
+  </si>
+  <si>
+    <t>Microsoft-Power-Apps-and-Flow-Melbourne</t>
+  </si>
+  <si>
+    <t>Microsoft Ppower Platform Melbourne</t>
+  </si>
+  <si>
+    <t>Power-BI-User-Group-Lima</t>
+  </si>
+  <si>
+    <t>Power BI User Group Lima</t>
+  </si>
+  <si>
+    <t>PowerBIFloripa</t>
+  </si>
+  <si>
+    <t>Power BI Floripa</t>
+  </si>
+  <si>
+    <t>Florianopolis</t>
+  </si>
+  <si>
+    <t>Queensland-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Queensland Power BI User Group</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>hrpbiug</t>
+  </si>
+  <si>
+    <t>Hampton Roads Power BI User Group</t>
+  </si>
+  <si>
+    <t>Virginia Beach</t>
+  </si>
+  <si>
+    <t>Sydney-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Sydney Power BI User Group</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>katie-emil-power-bi-webinars</t>
+  </si>
+  <si>
+    <t>Katie Emil power bi webinars</t>
+  </si>
+  <si>
+    <t>Kington</t>
+  </si>
+  <si>
+    <t>Power-BI-Group</t>
+  </si>
+  <si>
+    <t>Power BI Group</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>stuttgart-power-platform-user-group</t>
+  </si>
+  <si>
+    <t>Stuttgart Power Platform User Group</t>
+  </si>
+  <si>
+    <t>power-chevere</t>
+  </si>
+  <si>
+    <t>Power Platform en LatinoAmerica y en español</t>
+  </si>
+  <si>
+    <t>Power-BI-Women</t>
+  </si>
+  <si>
+    <t>Power BI Women</t>
+  </si>
+  <si>
+    <t>Bellevue</t>
+  </si>
+  <si>
+    <t>Cork-PowerBI-User-Group</t>
+  </si>
+  <si>
+    <t>Cork PowerBI User Group</t>
+  </si>
+  <si>
+    <t>Cork</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Sofia-Power-BI-Meetup</t>
+  </si>
+  <si>
+    <t>Sofia Power BI Meetup</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>power-platform-ug-ffm</t>
+  </si>
+  <si>
+    <t>Power Platform User Group Frankfurt</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Singapore-Power-Platform-User-Group</t>
+  </si>
+  <si>
+    <t>Singapore Power Platform User Group</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>OC-Power-Platform-UserGroup</t>
+  </si>
+  <si>
+    <t>Southern California Power Platform User Group</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>Power-BI-en-Cali</t>
+  </si>
+  <si>
+    <t>Power BI en Cali</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Power-Platform-Vigo</t>
+  </si>
+  <si>
+    <t>Power Platform Vigo</t>
+  </si>
+  <si>
+    <t>Vigo</t>
+  </si>
+  <si>
+    <t>upstream-o-g-power-platform-user-group</t>
+  </si>
+  <si>
+    <t>upstream o&amp;g power platform user group</t>
+  </si>
+  <si>
+    <t>pakistan-d365powerplatformcommunity</t>
+  </si>
+  <si>
+    <t>Pakistan d365 power platform community</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Microsoft-Dynamics-365-CRM-and-Power-Platform-Meetup-Bris</t>
+  </si>
+  <si>
+    <t>Microsoft Dynamics 365 and Power Platform Meetup Bris</t>
+  </si>
+  <si>
+    <t>Microsoft-Dynamics-365-CRM-and-Power-Platform-Meetup-Mel</t>
+  </si>
+  <si>
+    <t>Microsoft Dynamics 365 and Power Platform Meetup Mel</t>
+  </si>
+  <si>
+    <t>powerbi4enviros</t>
+  </si>
+  <si>
+    <t>Power BI and Data Analytics for Enviros</t>
+  </si>
+  <si>
+    <t>DublinPUG</t>
+  </si>
+  <si>
+    <t>Dublin PUG</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Power-BI-Learning-Community</t>
+  </si>
+  <si>
+    <t>Power BI Learning Community</t>
+  </si>
+  <si>
+    <t>Orlando power bi user group</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Meetup-de-Power-BI-en-Ciudad-de-Mexico</t>
+  </si>
+  <si>
+    <t>Meetup de Power BI en Ciudad de Mexico</t>
+  </si>
+  <si>
+    <t>CMPPUG</t>
+  </si>
+  <si>
+    <t>Chicago Microsoft Power Platform Users Group</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>czskppug</t>
+  </si>
+  <si>
+    <t>Czech and Slovak Power Platform User Group</t>
+  </si>
+  <si>
+    <t>Prague</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Power-Platform-Euskadi</t>
+  </si>
+  <si>
+    <t>Power Platform Euskadi</t>
+  </si>
+  <si>
+    <t>Bilbao</t>
+  </si>
+  <si>
+    <t>powerplatformbirmingham</t>
+  </si>
+  <si>
+    <t>power platform birmingham</t>
+  </si>
+  <si>
+    <t>Christchurch-Microsoft-PowerApps-Flow-and-CDS-Meetup</t>
+  </si>
+  <si>
+    <t>Christchurch Microsoft PowerApps Flow and CDS Meetup</t>
+  </si>
+  <si>
+    <t>Christchurch</t>
+  </si>
+  <si>
+    <t>SeattlePowerPlatform</t>
+  </si>
+  <si>
+    <t>Seattle Power Platform</t>
+  </si>
+  <si>
+    <t>Portland-PowerApps-Flow-User-Group</t>
+  </si>
+  <si>
+    <t>Portland PowerApps Flow User Group</t>
+  </si>
+  <si>
+    <t>Redmond-Microsoft-Power-Platform-Meetup-Group</t>
+  </si>
+  <si>
+    <t>Redmond Microsoft Power Platform Meetup Group</t>
+  </si>
+  <si>
+    <t>Redmond</t>
+  </si>
+  <si>
+    <t>Oklahoma-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Oklahoma Power BI User Group</t>
+  </si>
+  <si>
+    <t>Oklahoma City</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Columbus-Azure-ML-and-Power-BI-User-Group</t>
+  </si>
+  <si>
+    <t>Columbus Azure ML and Power BI User Group (CAMLPUG)</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Seattle-Modern-Excel-Users-Group-MEUG</t>
+  </si>
+  <si>
+    <t>Seattle Modern Excel Users Group MEUG</t>
+  </si>
+  <si>
+    <t>wnydbtug</t>
+  </si>
+  <si>
+    <t>WNY Data &amp; Business Technology User Group</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Pittsburgh-PowerApps-and-Flow-User-Group</t>
+  </si>
+  <si>
+    <t>Pittsburgh PowerApps and Flow User Group</t>
+  </si>
+  <si>
+    <t>San Diego Power BI and PowerApps User Group</t>
+  </si>
+  <si>
+    <t>San-Diego-Power-BI-Power-Apps-Meetup</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>LoadSite</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://tinyurl.com/kwemcymy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,12 +1358,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -294,10 +1381,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,6 +1399,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D1850C77-2D37-4B6E-9E2A-BD6752FDFF09}" name="Table1" displayName="Table1" ref="A1:G131" totalsRowShown="0">
+  <autoFilter ref="A1:G131" xr:uid="{65DAEAF5-E2A2-439A-8580-053DD57E3F33}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{957E6614-C47A-4F84-AACB-97FBCE19AFCD}" name="FeedURL"/>
+    <tableColumn id="2" xr3:uid="{48A1F94B-CBB1-4FE9-9CF0-48229CC4CF58}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{653A365E-4F3D-4529-A753-415AA9EB946A}" name="City"/>
+    <tableColumn id="4" xr3:uid="{C94D09D0-EFB2-4840-9863-69412ACE73E4}" name="State"/>
+    <tableColumn id="5" xr3:uid="{3E3B2511-210E-44AB-A2A9-F8B0B6AF680C}" name="Country"/>
+    <tableColumn id="6" xr3:uid="{05725F5E-C0AC-46B4-9DD9-151FC51C12C1}" name="Category"/>
+    <tableColumn id="7" xr3:uid="{95BA0F9A-9446-4CBF-9061-94A52BE4CBB8}" name="LoadSite"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,10 +1714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A01CF63-2C8A-4AFC-86FF-A4F7E98922B3}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,363 +1726,3103 @@
     <col min="1" max="1" width="66.44140625" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D124" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E124" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F124" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1</v>
+      <c r="F125" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.meetup.com/DFW-Power-BI-User-Group" xr:uid="{4EC51F42-FFEB-4705-A6E4-97AB4299607E}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.meetup.com/Portland-Power-BI-User-Group" xr:uid="{1046F404-6966-4450-AAC6-F5A68DB81E25}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.meetup.com/Power-BI-Community-Times" xr:uid="{67E832C8-92AF-405A-838C-E409B9DFC8E5}"/>
-    <hyperlink ref="A13" r:id="rId4" display="https://www.meetup.com/Greater-Houston-Power-BI-Users-Group" xr:uid="{E47E1780-B5A5-4AD5-9E4F-A843ADE485CE}"/>
-    <hyperlink ref="A14" r:id="rId5" display="https://www.meetup.com/PowerBI-Turkiye" xr:uid="{7B847705-9F4E-4F1E-841A-BB9D32F4C26A}"/>
-    <hyperlink ref="A16" r:id="rId6" display="https://www.meetup.com/New-Stars-Of-Data" xr:uid="{24A5B414-C533-4496-8C2A-2AC19AA9C595}"/>
-    <hyperlink ref="A18" r:id="rId7" display="https://www.meetup.com/powerbiusergroup" xr:uid="{446DE33F-15DA-4F3E-A557-5FC5DECB007A}"/>
-    <hyperlink ref="A19" r:id="rId8" display="https://www.meetup.com/Power-BI-Café" xr:uid="{1BA646C4-D6F8-4C4B-BFA6-8DF71E4F42F6}"/>
-    <hyperlink ref="A15" r:id="rId9" display="https://www.meetup.com/Boston_BI" xr:uid="{4219E2C4-1854-42C9-9D49-2D0E4C02447A}"/>
-    <hyperlink ref="A7" r:id="rId10" display="https://www.meetup.com/IowaPowerBI" xr:uid="{97940DDF-A8BE-4C61-85F4-AAD0212C3AFC}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://www.meetup.com/MileHiPowerBI" xr:uid="{02DADBF5-1E3F-4BCC-A5B6-009CD554F699}"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA6BC5C-86DE-4383-A442-FF8727380DC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>